--- a/biology/Zoologie/Acrida_ungarica/Acrida_ungarica.xlsx
+++ b/biology/Zoologie/Acrida_ungarica/Acrida_ungarica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrida ungarica est une espèce de criquets phytophages présente en Europe autour de la Méditerranée.
 </t>
@@ -511,11 +523,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom vernaculaire le plus courant de l'espèce est truxale méditerranéenne[1]. On l'appelle aussi truxale occitane, criquet des magyars ou criquet au long nez. C'est la sous-espèce Acrida ungarica mediterranea (Dirsh, 1949) qui est présente en France[2]. La sous-espèce nominale est présente en Europe de l'Est.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom vernaculaire le plus courant de l'espèce est truxale méditerranéenne. On l'appelle aussi truxale occitane, criquet des magyars ou criquet au long nez. C'est la sous-espèce Acrida ungarica mediterranea (Dirsh, 1949) qui est présente en France. La sous-espèce nominale est présente en Europe de l'Est.
 Synonymes :
-Acrida mediterranea Dirsh, 1949[2]</t>
+Acrida mediterranea Dirsh, 1949</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La truxale méditerranéenne est un criquet élancé de 30 à 60 mm de long. De couleur variable, on la reconnait à sa tête allongée ornée de deux yeux situés au sommet. Ses antennes, ensiformes, sont larges à la base et se terminent en pointe.
 </t>
@@ -574,10 +590,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est assez largement répandue autour de la Méditerranée, y compris en Crète[3]. En France, elle a été signalée des Pyrénées-Orientales aux Alpes-Maritimes. La limite Nord de son aire de répartition se trouve à proximité de Montélimar. Aujourd'hui l'espèce s'étend jusqu'au nord de la Drôme avec même quelques observations au sud de l'Isère. Elle est également signalée en Corse[4].
-Acrida ungarica se rencontre dans de nombreux milieux allant des bois clairs aux prairies sèches à humides et les vignobles. On la trouve plus fréquemment sur les terrains sableux et les alluvions[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est assez largement répandue autour de la Méditerranée, y compris en Crète. En France, elle a été signalée des Pyrénées-Orientales aux Alpes-Maritimes. La limite Nord de son aire de répartition se trouve à proximité de Montélimar. Aujourd'hui l'espèce s'étend jusqu'au nord de la Drôme avec même quelques observations au sud de l'Isère. Elle est également signalée en Corse.
+Acrida ungarica se rencontre dans de nombreux milieux allant des bois clairs aux prairies sèches à humides et les vignobles. On la trouve plus fréquemment sur les terrains sableux et les alluvions.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Autres espèces du genre Acrida en particulier Acrida turrita.</t>
         </is>
